--- a/DGE_CRED_Model/ExcelFiles/Data/Regression Data.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/Data/Regression Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\OneDrive\Dokumente\GitHub\Vietnam_RBC_model\Spatial_Multisector-RBC-SOE-model_capital_sector_specific\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/DGE-CRED/DGE_CRED_Model/ExcelFiles/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_AD4DB114E441178AC67DF49B5E15FCDE693EDF26" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCDA6261-9717-412F-BAE1-3132ADC520D9}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="11_AD4DB114E441178AC67DF49B5E15FCDE693EDF26" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC4DD0E7-8D2D-4670-A949-B940D23961E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37440" yWindow="-600" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dependent" sheetId="1" r:id="rId1"/>
@@ -143,8 +143,8 @@
       <sheetName val="Shares for Calibration"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="X2">
             <v>176402</v>
@@ -594,7 +594,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -608,8 +608,8 @@
       <sheetName val="Regression Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="X2">
             <v>342811</v>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3389E90-BA6B-4881-9A18-2D7C7733CCB3}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:K15"/>
     </sheetView>
   </sheetViews>
